--- a/target/classes/com/crm/qa/testdata/Contacts.xlsx
+++ b/target/classes/com/crm/qa/testdata/Contacts.xlsx
@@ -4,26 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6435"/>
   </bookViews>
   <sheets>
-    <sheet name="Conatcts" sheetId="1" r:id="rId1"/>
+    <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Firstname</t>
   </si>
   <si>
-    <t>SecondName</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -45,9 +43,6 @@
     <t>Zipcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrs </t>
-  </si>
-  <si>
     <t>Rakesh</t>
   </si>
   <si>
@@ -64,6 +59,18 @@
   </si>
   <si>
     <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -131,14 +138,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,7 +446,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
@@ -449,34 +458,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -491,32 +502,35 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>8879914204</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <v>8879914204</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>400089</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
